--- a/processed_data/pop_density_rental_price_corr.xlsx
+++ b/processed_data/pop_density_rental_price_corr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Western Province</t>
   </si>
@@ -72,10 +72,13 @@
     <t>colombo</t>
   </si>
   <si>
-    <t>population density</t>
-  </si>
-  <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Population density area</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,7 +119,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1012,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
